--- a/dataproject/FPI_KEY_2008_FORWARD - Copy.xlsx
+++ b/dataproject/FPI_KEY_2008_FORWARD - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorgensench\OneDrive - WPP Cloud\Diverse\CPH\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorgensench\OneDrive - WPP Cloud\Diverse\CPH\Python\projects-2024-econ-jyderne\dataproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E1E9B5-A7BC-42DA-B0DF-8AE7BA36E874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E378BEA-0746-42FC-8D21-D7AC120B1102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>2008M01</t>
   </si>
@@ -666,6 +666,9 @@
   </si>
   <si>
     <t>15.1 Forbrugerprisindeks ekskl. energi</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -1007,12 +1010,15 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>211</v>
+      </c>
       <c r="B1" t="s">
         <v>194</v>
       </c>

--- a/dataproject/FPI_KEY_2008_FORWARD - Copy.xlsx
+++ b/dataproject/FPI_KEY_2008_FORWARD - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorgensench\OneDrive - WPP Cloud\Diverse\CPH\Python\projects-2024-econ-jyderne\dataproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E378BEA-0746-42FC-8D21-D7AC120B1102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681338DE-A687-4312-9D57-23F967964DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -1009,11 +1009,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B564F7E2-1BB1-42C9-8079-83671D5414F9}">
   <dimension ref="A1:R195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="73.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
